--- a/resources/dataset_small.xlsx
+++ b/resources/dataset_small.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\my ml models\psycatry\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anyak\PycharmProjects\ChatBotXML\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B473CBC-3783-4262-A5B9-28967475BD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{343A2DF2-942D-43F3-B6BB-7F2165A6DCFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="984" windowWidth="13056" windowHeight="11976" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset مهم" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
     <t>PDD</t>
   </si>
   <si>
-    <t>ag+1:629e</t>
+    <t>age</t>
   </si>
 </sst>
 </file>
@@ -985,8 +985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC638"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A597" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection sqref="A1:XFD44"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
